--- a/RE_FRAME_WORK_FRUIT_PROJECT/Data/Config.xlsx
+++ b/RE_FRAME_WORK_FRUIT_PROJECT/Data/Config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\OneDrive\Documents\UiPath\RE_FRAME_WORK_FRUIT_PROJECT\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\USE_Cases\RE_FRAME_WORK_FRUIT_PROJECT\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="49">
   <si>
     <t>Name</t>
   </si>
@@ -165,13 +165,19 @@
   </si>
   <si>
     <t>Fruits.xlsx</t>
+  </si>
+  <si>
+    <t>Taste_Url</t>
+  </si>
+  <si>
+    <t>https://www.taste.com.au</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -195,6 +201,12 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -213,10 +225,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -226,8 +239,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -543,7 +558,7 @@
   <dimension ref="A1:Z998"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -629,7 +644,14 @@
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="8" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="10" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="11" spans="1:26" ht="14.25" customHeight="1"/>
@@ -1622,8 +1644,11 @@
     <row r="998" ht="14.25" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="2"/>
+  <hyperlinks>
+    <hyperlink ref="B8" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
